--- a/dens_data_co2.xlsx
+++ b/dens_data_co2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vojo620\Documents\Python\Lehre\ProSim\srk_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{657346EE-3902-4D4E-938D-7395B2D8CECF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E51FB3-FD3C-4D2A-8C7E-593637909F96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{9BD280A6-2093-464E-8697-5A511A361336}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="14415" windowHeight="11910" xr2:uid="{9BD280A6-2093-464E-8697-5A511A361336}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -396,7 +396,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:C9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
